--- a/tests/frameworks/framework_sir_badcascade2.xlsx
+++ b/tests/frameworks/framework_sir_badcascade2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{862078F8-1594-4BF9-9485-0664E2591E3E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366B7DAA-4DCE-45B6-9C3E-29D732D3B1FC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="7" r:id="rId1"/>
@@ -1271,8 +1271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S17" sqref="S17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,9 +1327,7 @@
         <v>59</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -1349,9 +1347,7 @@
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="2"/>
-      <c r="H3" s="2">
-        <v>0</v>
-      </c>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
@@ -1371,9 +1367,7 @@
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="2"/>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
@@ -1393,9 +1387,7 @@
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="2"/>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
+      <c r="H5" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1488,7 +1480,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1539,9 +1531,7 @@
         <v>59</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2">
-        <v>1</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="3" t="s">
         <v>27</v>
       </c>
@@ -1559,9 +1549,7 @@
         <v>59</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="2">
-        <v>1</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1579,9 +1567,7 @@
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="2"/>
-      <c r="E4" s="2">
-        <v>1</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="3" t="s">
         <v>30</v>
       </c>
@@ -1597,9 +1583,7 @@
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="2"/>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="3" t="s">
         <v>33</v>
       </c>
@@ -1615,9 +1599,7 @@
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="2"/>
-      <c r="E6" s="2">
-        <v>1</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="3" t="s">
         <v>35</v>
       </c>
@@ -1633,9 +1615,7 @@
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2"/>
-      <c r="E7" s="2">
-        <v>1</v>
-      </c>
+      <c r="E7" s="2"/>
       <c r="F7" s="3" t="s">
         <v>28</v>
       </c>
@@ -1653,9 +1633,7 @@
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="2"/>
-      <c r="E8" s="2">
-        <v>1</v>
-      </c>
+      <c r="E8" s="2"/>
       <c r="F8" s="3" t="s">
         <v>31</v>
       </c>
@@ -1673,9 +1651,7 @@
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="2"/>
-      <c r="E9" s="2">
-        <v>1</v>
-      </c>
+      <c r="E9" s="2"/>
       <c r="F9" s="3" t="s">
         <v>34</v>
       </c>
@@ -1873,7 +1849,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94509DB-A1F5-4668-BF8F-11287B88AAAB}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/tests/frameworks/framework_sir_badcascade2.xlsx
+++ b/tests/frameworks/framework_sir_badcascade2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{366B7DAA-4DCE-45B6-9C3E-29D732D3B1FC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCAB402-9F21-41B9-AFCD-EE290C1BB191}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="7" r:id="rId1"/>
@@ -730,9 +730,6 @@
     <t>inf,rec</t>
   </si>
   <si>
-    <t>Is Impact</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -746,6 +743,9 @@
   </si>
   <si>
     <t>bad</t>
+  </si>
+  <si>
+    <t>Targetable</t>
   </si>
 </sst>
 </file>
@@ -1173,18 +1173,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>70</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1271,7 +1271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
@@ -1670,8 +1670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1700,7 +1700,7 @@
         <v>60</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>8</v>
@@ -1893,7 +1893,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>67</v>

--- a/tests/frameworks/framework_sir_badcascade2.xlsx
+++ b/tests/frameworks/framework_sir_badcascade2.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh.abey\Desktop\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFCAB402-9F21-41B9-AFCD-EE290C1BB191}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="18" windowWidth="16098" windowHeight="9660" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="7" r:id="rId1"/>
@@ -21,17 +20,17 @@
     <sheet name="Parameters" sheetId="4" r:id="rId6"/>
     <sheet name="Cascades" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{A933BB2F-BD44-4AA3-9747-9EE271A8A43E}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +51,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{2C9FAE90-07ED-44EF-9D3B-D0E0456BD991}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -75,12 +74,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -105,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -131,7 +130,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -157,7 +156,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -182,7 +181,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -210,7 +209,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{366F887C-C07F-4154-8785-9BDF4F8B6839}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -225,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{3881AE7E-FAB1-4967-BFF9-35EC5F9DF654}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -258,12 +257,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -288,7 +287,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -314,7 +313,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{CC0CB859-3F5D-43C9-94B0-27F5CB43D565}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -329,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{A1CB8378-C4D4-4895-97A1-EAB67B145FFE}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -356,7 +355,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -383,7 +382,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -396,7 +395,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -414,12 +413,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -441,7 +440,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -464,7 +463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -477,7 +476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{65E32CD1-EF29-4034-8FD9-2B2CA808AD0D}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -490,7 +489,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -503,7 +502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000005000000}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -751,7 +750,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -918,23 +917,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -970,23 +952,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1162,16 +1127,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A224E424-D7C4-446D-A46F-73A4430DA45C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L44" sqref="L44:L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>69</v>
       </c>
@@ -1179,7 +1144,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="10" t="s">
         <v>71</v>
       </c>
@@ -1193,19 +1158,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158C4163-0781-4E11-A6B9-0912B33A6E99}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="25.7109375" customWidth="1"/>
+    <col min="1" max="2" width="25.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -1213,7 +1178,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -1221,7 +1186,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
@@ -1229,35 +1194,35 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
@@ -1268,20 +1233,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="15.68359375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1307,7 +1272,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1329,7 +1294,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1349,7 +1314,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1369,7 +1334,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1391,7 +1356,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E5" xr:uid="{EB410747-7D07-4683-B8BD-9F706D62D425}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E5">
       <formula1>"n,y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1401,19 +1366,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="str">
         <f>Compartments!A2</f>
         <v>sus</v>
@@ -1431,7 +1396,7 @@
         <v>dead</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="str">
         <f>Compartments!A2</f>
         <v>sus</v>
@@ -1443,7 +1408,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1" t="str">
         <f>Compartments!A3</f>
         <v>inf</v>
@@ -1455,7 +1420,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1" t="str">
         <f>Compartments!A4</f>
         <v>rec</v>
@@ -1464,7 +1429,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1" t="str">
         <f>Compartments!A5</f>
         <v>dead</v>
@@ -1476,25 +1441,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="5" width="20.7109375" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.68359375" customWidth="1"/>
+    <col min="4" max="5" width="20.68359375" customWidth="1"/>
+    <col min="6" max="6" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1520,7 +1485,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -1538,7 +1503,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -1558,7 +1523,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1574,7 +1539,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1590,7 +1555,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -1606,7 +1571,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
@@ -1624,7 +1589,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -1642,7 +1607,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -1667,26 +1632,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="96.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26171875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.68359375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.26171875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26171875" customWidth="1"/>
+    <col min="6" max="6" width="20.578125" customWidth="1"/>
+    <col min="7" max="7" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="96.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1712,7 +1677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -1734,7 +1699,7 @@
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
@@ -1756,32 +1721,37 @@
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="7"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" t="s">
         <v>43</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="H4" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>63</v>
@@ -1790,17 +1760,17 @@
         <v>20</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5">
-        <v>0.5</v>
+      <c r="G5" s="8">
+        <v>1.6E-2</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
@@ -1813,31 +1783,26 @@
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="8">
-        <v>1.6E-2</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="8">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H7" s="7"/>
+      <c r="H7" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1846,20 +1811,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E94509DB-A1F5-4668-BF8F-11287B88AAAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.83984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26171875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>66</v>
       </c>
@@ -1867,7 +1832,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -1875,7 +1840,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -1883,7 +1848,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1891,7 +1856,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="9" t="s">
         <v>73</v>
       </c>
@@ -1899,7 +1864,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
@@ -1907,7 +1872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -1915,7 +1880,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>

--- a/tests/frameworks/framework_sir_badcascade2.xlsx
+++ b/tests/frameworks/framework_sir_badcascade2.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romesh.abey\Desktop\projects\atomica\atomica\tests\frameworks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\atomica\atomica\tests\frameworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF087F24-B9E7-4E63-B57C-C002F6F4F8A4}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="18" windowWidth="16098" windowHeight="9660" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="7" r:id="rId1"/>
@@ -20,17 +21,24 @@
     <sheet name="Parameters" sheetId="4" r:id="rId6"/>
     <sheet name="Cascades" sheetId="6" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179021"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,7 +59,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -74,12 +82,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -104,7 +112,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -130,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000003000000}">
       <text>
         <r>
           <rPr>
@@ -156,7 +164,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -181,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -209,7 +217,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000006000000}">
       <text>
         <r>
           <rPr>
@@ -224,7 +232,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000007000000}">
       <text>
         <r>
           <rPr>
@@ -257,12 +265,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -287,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -313,7 +321,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000003000000}">
       <text>
         <r>
           <rPr>
@@ -328,7 +336,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000004000000}">
       <text>
         <r>
           <rPr>
@@ -355,7 +363,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000005000000}">
       <text>
         <r>
           <rPr>
@@ -382,7 +390,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000006000000}">
       <text>
         <r>
           <rPr>
@@ -395,7 +403,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000007000000}">
       <text>
         <r>
           <rPr>
@@ -413,12 +421,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -440,7 +448,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000002000000}">
       <text>
         <r>
           <rPr>
@@ -463,7 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000003000000}">
       <text>
         <r>
           <rPr>
@@ -476,7 +484,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000004000000}">
       <text>
         <r>
           <rPr>
@@ -489,7 +497,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000005000000}">
       <text>
         <r>
           <rPr>
@@ -502,7 +510,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000006000000}">
       <text>
         <r>
           <rPr>
@@ -520,7 +528,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="75">
   <si>
     <t>Code Name</t>
   </si>
@@ -750,7 +758,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -917,6 +925,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -952,6 +977,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1127,16 +1169,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L44" sqref="L44:L45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>69</v>
       </c>
@@ -1144,7 +1186,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>71</v>
       </c>
@@ -1158,19 +1200,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="25.68359375" customWidth="1"/>
+    <col min="1" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>62</v>
       </c>
@@ -1178,7 +1220,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>59</v>
       </c>
@@ -1186,7 +1228,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>63</v>
       </c>
@@ -1194,35 +1236,35 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
     </row>
@@ -1233,20 +1275,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.15625" bestFit="1" customWidth="1"/>
-    <col min="2" max="8" width="15.68359375" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="8" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1272,7 +1314,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -1294,7 +1336,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>14</v>
       </c>
@@ -1314,7 +1356,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1334,7 +1376,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
@@ -1356,7 +1398,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:E5" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>"n,y"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1366,19 +1408,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="14.83984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="str">
         <f>Compartments!A2</f>
         <v>sus</v>
@@ -1396,7 +1438,7 @@
         <v>dead</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="str">
         <f>Compartments!A2</f>
         <v>sus</v>
@@ -1408,7 +1450,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="str">
         <f>Compartments!A3</f>
         <v>inf</v>
@@ -1420,7 +1462,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="str">
         <f>Compartments!A4</f>
         <v>rec</v>
@@ -1429,7 +1471,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="str">
         <f>Compartments!A5</f>
         <v>dead</v>
@@ -1441,25 +1483,25 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.68359375" customWidth="1"/>
-    <col min="4" max="5" width="20.68359375" customWidth="1"/>
-    <col min="6" max="6" width="12.26171875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="5" width="20.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1485,7 +1527,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>25</v>
       </c>
@@ -1503,7 +1545,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>55</v>
       </c>
@@ -1523,7 +1565,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1539,7 +1581,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>31</v>
       </c>
@@ -1555,7 +1597,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>34</v>
       </c>
@@ -1571,7 +1613,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>36</v>
       </c>
@@ -1589,7 +1631,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>38</v>
       </c>
@@ -1607,7 +1649,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>40</v>
       </c>
@@ -1632,26 +1674,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.68359375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.68359375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.26171875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26171875" customWidth="1"/>
-    <col min="6" max="6" width="20.578125" customWidth="1"/>
-    <col min="7" max="7" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="96.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="96.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1677,7 +1719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>44</v>
       </c>
@@ -1690,16 +1732,14 @@
       <c r="D2" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="6">
         <v>8.0000000000000004E-4</v>
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>46</v>
       </c>
@@ -1712,16 +1752,14 @@
       <c r="D3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3">
         <v>80</v>
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>23</v>
       </c>
@@ -1734,16 +1772,14 @@
       <c r="D4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4">
         <v>0.5</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1756,16 +1792,14 @@
       <c r="D5" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E5" s="2"/>
       <c r="F5" s="2"/>
       <c r="G5" s="8">
         <v>1.6E-2</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
@@ -1778,16 +1812,14 @@
       <c r="D6" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="8">
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="H6" s="7"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
@@ -1811,20 +1843,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.83984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>66</v>
       </c>
@@ -1832,7 +1864,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>26</v>
       </c>
@@ -1840,7 +1872,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>29</v>
       </c>
@@ -1848,7 +1880,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -1856,7 +1888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>73</v>
       </c>
@@ -1864,7 +1896,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>26</v>
       </c>
@@ -1872,7 +1904,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -1880,7 +1912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>17</v>
       </c>
